--- a/CourseTester.xlsx
+++ b/CourseTester.xlsx
@@ -24,7 +24,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -36,6 +36,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -71,10 +77,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -476,7 +482,7 @@
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
-      <c r="C1" s="5" t="n"/>
+      <c r="C1" s="2" t="n"/>
       <c r="D1" s="4" t="n"/>
       <c r="E1" s="4" t="n"/>
       <c r="F1" s="4" t="n"/>
@@ -494,14 +500,14 @@
         </is>
       </c>
       <c r="B2" s="4" t="n"/>
-      <c r="C2" s="5" t="n"/>
+      <c r="C2" s="2" t="n"/>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="4" t="n"/>
       <c r="G2" s="4" t="n"/>
       <c r="H2" s="4" t="n"/>
     </row>
-    <row r="3" ht="17.25" customHeight="1">
+    <row r="3" ht="19.5" customHeight="1">
       <c r="A3" s="4" t="inlineStr">
         <is>
           <t>PCOM 0203</t>
@@ -521,7 +527,7 @@
       <c r="G3" s="4" t="n"/>
       <c r="H3" s="4" t="n"/>
     </row>
-    <row r="4" ht="17.25" customHeight="1">
+    <row r="4" ht="19.5" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
         <is>
           <t>SUPR 0751</t>
@@ -556,7 +562,7 @@
           <t>Business Persuasion and Research</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>35</t>
         </is>
@@ -567,7 +573,7 @@
       <c r="G5" s="4" t="inlineStr"/>
       <c r="H5" s="4" t="inlineStr"/>
     </row>
-    <row r="6" ht="17.25" customHeight="1">
+    <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
         <is>
           <t>CMSK 0237</t>
@@ -595,7 +601,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="17.25" customHeight="1">
+    <row r="7" ht="19.5" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
         <is>
           <t>SUPR 0837</t>
@@ -619,7 +625,7 @@
       <c r="G7" s="4" t="n"/>
       <c r="H7" s="4" t="n"/>
     </row>
-    <row r="8" ht="17.25" customHeight="1">
+    <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="4" t="inlineStr">
         <is>
           <t>SUPR 0841</t>
@@ -650,14 +656,14 @@
         </is>
       </c>
       <c r="B9" s="4" t="n"/>
-      <c r="C9" s="5" t="n"/>
+      <c r="C9" s="2" t="n"/>
       <c r="D9" s="4" t="n"/>
       <c r="E9" s="4" t="n"/>
       <c r="F9" s="4" t="n"/>
       <c r="G9" s="4" t="n"/>
       <c r="H9" s="4" t="n"/>
     </row>
-    <row r="10" ht="17.25" customHeight="1">
+    <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="4" t="inlineStr">
         <is>
           <t>SUPR 0821</t>
@@ -681,7 +687,7 @@
       <c r="G10" s="4" t="n"/>
       <c r="H10" s="4" t="n"/>
     </row>
-    <row r="11" ht="17.25" customHeight="1">
+    <row r="11" ht="19.5" customHeight="1">
       <c r="A11" s="4" t="inlineStr">
         <is>
           <t>SUPR 0822</t>
@@ -705,7 +711,7 @@
       <c r="G11" s="4" t="n"/>
       <c r="H11" s="4" t="n"/>
     </row>
-    <row r="12" ht="17.25" customHeight="1">
+    <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="4" t="inlineStr">
         <is>
           <t>SUPR 0718</t>
@@ -729,7 +735,7 @@
       <c r="G12" s="4" t="n"/>
       <c r="H12" s="4" t="n"/>
     </row>
-    <row r="13" ht="17.25" customHeight="1">
+    <row r="13" ht="19.5" customHeight="1">
       <c r="A13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">SUPR 0836 </t>
@@ -753,7 +759,7 @@
       <c r="G13" s="4" t="n"/>
       <c r="H13" s="4" t="n"/>
     </row>
-    <row r="14" ht="17.25" customHeight="1">
+    <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">AVDM 0199 </t>
@@ -781,7 +787,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="17.25" customHeight="1">
+    <row r="15" ht="19.5" customHeight="1">
       <c r="A15" s="4" t="inlineStr">
         <is>
           <t>PCOM 0106</t>
@@ -816,14 +822,14 @@
         </is>
       </c>
       <c r="B16" s="4" t="n"/>
-      <c r="C16" s="5" t="n"/>
+      <c r="C16" s="2" t="n"/>
       <c r="D16" s="4" t="n"/>
       <c r="E16" s="4" t="n"/>
       <c r="F16" s="4" t="n"/>
       <c r="G16" s="4" t="n"/>
       <c r="H16" s="4" t="n"/>
     </row>
-    <row r="17" ht="17.25" customHeight="1">
+    <row r="17" ht="19.5" customHeight="1">
       <c r="A17" s="4" t="inlineStr">
         <is>
           <t>PCOM 0205</t>
@@ -847,7 +853,7 @@
       <c r="G17" s="4" t="n"/>
       <c r="H17" s="4" t="n"/>
     </row>
-    <row r="18" ht="17.25" customHeight="1">
+    <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="4" t="inlineStr">
         <is>
           <t>PCOM TBD</t>
@@ -867,7 +873,7 @@
       <c r="G18" s="4" t="n"/>
       <c r="H18" s="4" t="n"/>
     </row>
-    <row r="19" ht="17.25" customHeight="1">
+    <row r="19" ht="19.5" customHeight="1">
       <c r="A19" s="4" t="inlineStr">
         <is>
           <t>PCOM 0207</t>
@@ -891,7 +897,7 @@
       <c r="G19" s="4" t="n"/>
       <c r="H19" s="4" t="n"/>
     </row>
-    <row r="20" ht="17.25" customHeight="1">
+    <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="4" t="inlineStr">
         <is>
           <t>SUPR 0863</t>
@@ -915,7 +921,7 @@
       <c r="G20" s="4" t="n"/>
       <c r="H20" s="4" t="n"/>
     </row>
-    <row r="21" ht="17.25" customHeight="1">
+    <row r="21" ht="19.5" customHeight="1">
       <c r="A21" s="4" t="inlineStr">
         <is>
           <t>PCOM 0206</t>
@@ -939,7 +945,7 @@
       <c r="G21" s="4" t="n"/>
       <c r="H21" s="4" t="n"/>
     </row>
-    <row r="22" ht="17.25" customHeight="1">
+    <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="4" t="inlineStr">
         <is>
           <t>AVDM 0260</t>
@@ -1002,7 +1008,7 @@
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
-      <c r="C1" s="5" t="n"/>
+      <c r="C1" s="2" t="n"/>
       <c r="D1" s="4" t="n"/>
       <c r="E1" s="4" t="n"/>
       <c r="F1" s="4" t="n"/>
@@ -1015,7 +1021,7 @@
         </is>
       </c>
       <c r="B2" s="4" t="n"/>
-      <c r="C2" s="5" t="n"/>
+      <c r="C2" s="2" t="n"/>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="4" t="n"/>
@@ -1135,7 +1141,7 @@
         </is>
       </c>
       <c r="B8" s="4" t="n"/>
-      <c r="C8" s="5" t="n"/>
+      <c r="C8" s="2" t="n"/>
       <c r="D8" s="4" t="n"/>
       <c r="E8" s="4" t="n"/>
       <c r="F8" s="4" t="n"/>
@@ -1209,7 +1215,7 @@
         </is>
       </c>
       <c r="B12" s="4" t="n"/>
-      <c r="C12" s="5" t="n"/>
+      <c r="C12" s="2" t="n"/>
       <c r="D12" s="4" t="n"/>
       <c r="E12" s="4" t="n"/>
       <c r="F12" s="4" t="n"/>
@@ -1347,7 +1353,7 @@
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
-      <c r="C1" s="5" t="n"/>
+      <c r="C1" s="2" t="n"/>
       <c r="D1" s="4" t="n"/>
       <c r="E1" s="4" t="n"/>
       <c r="F1" s="4" t="n"/>
@@ -1361,7 +1367,7 @@
         </is>
       </c>
       <c r="B2" s="4" t="n"/>
-      <c r="C2" s="5" t="n"/>
+      <c r="C2" s="2" t="n"/>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="4" t="n"/>
@@ -1435,7 +1441,7 @@
         </is>
       </c>
       <c r="B6" s="4" t="n"/>
-      <c r="C6" s="5" t="n"/>
+      <c r="C6" s="2" t="n"/>
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="4" t="n"/>
       <c r="F6" s="4" t="n"/>
@@ -1533,7 +1539,7 @@
         </is>
       </c>
       <c r="B11" s="4" t="n"/>
-      <c r="C11" s="5" t="n"/>
+      <c r="C11" s="2" t="n"/>
       <c r="D11" s="4" t="n"/>
       <c r="E11" s="4" t="n"/>
       <c r="F11" s="4" t="n"/>
@@ -1624,7 +1630,7 @@
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
-      <c r="C1" s="5" t="n"/>
+      <c r="C1" s="2" t="n"/>
       <c r="D1" s="4" t="n"/>
       <c r="E1" s="4" t="n"/>
       <c r="F1" s="4" t="n"/>
@@ -1638,7 +1644,7 @@
         </is>
       </c>
       <c r="B2" s="4" t="n"/>
-      <c r="C2" s="5" t="n"/>
+      <c r="C2" s="2" t="n"/>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="4" t="n"/>
@@ -1732,7 +1738,7 @@
         </is>
       </c>
       <c r="B7" s="4" t="n"/>
-      <c r="C7" s="5" t="n"/>
+      <c r="C7" s="2" t="n"/>
       <c r="D7" s="4" t="n"/>
       <c r="E7" s="4" t="n"/>
       <c r="F7" s="4" t="n"/>
@@ -1810,7 +1816,7 @@
         </is>
       </c>
       <c r="B11" s="4" t="n"/>
-      <c r="C11" s="5" t="n"/>
+      <c r="C11" s="2" t="n"/>
       <c r="D11" s="4" t="n"/>
       <c r="E11" s="4" t="n"/>
       <c r="F11" s="4" t="n"/>
@@ -1900,7 +1906,7 @@
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
-      <c r="C1" s="5" t="n"/>
+      <c r="C1" s="2" t="n"/>
       <c r="D1" s="4" t="n"/>
       <c r="E1" s="4" t="n"/>
       <c r="F1" s="4" t="n"/>
@@ -1913,7 +1919,7 @@
         </is>
       </c>
       <c r="B2" s="4" t="n"/>
-      <c r="C2" s="5" t="n"/>
+      <c r="C2" s="2" t="n"/>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="4" t="n"/>
@@ -2006,7 +2012,7 @@
         </is>
       </c>
       <c r="B7" s="4" t="n"/>
-      <c r="C7" s="5" t="n"/>
+      <c r="C7" s="2" t="n"/>
       <c r="D7" s="4" t="n"/>
       <c r="E7" s="4" t="n"/>
       <c r="F7" s="4" t="n"/>
@@ -2080,7 +2086,7 @@
         </is>
       </c>
       <c r="B11" s="4" t="n"/>
-      <c r="C11" s="5" t="n"/>
+      <c r="C11" s="2" t="n"/>
       <c r="D11" s="4" t="n"/>
       <c r="E11" s="4" t="n"/>
       <c r="F11" s="4" t="n"/>
@@ -2165,7 +2171,7 @@
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
-      <c r="C1" s="5" t="n"/>
+      <c r="C1" s="2" t="n"/>
       <c r="D1" s="4" t="n"/>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -2176,7 +2182,7 @@
         </is>
       </c>
       <c r="B2" s="4" t="n"/>
-      <c r="C2" s="5" t="n"/>
+      <c r="C2" s="2" t="n"/>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
     </row>
@@ -2238,7 +2244,7 @@
         </is>
       </c>
       <c r="B6" s="4" t="n"/>
-      <c r="C6" s="5" t="n"/>
+      <c r="C6" s="2" t="n"/>
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="4" t="n"/>
     </row>
@@ -2308,7 +2314,7 @@
         </is>
       </c>
       <c r="B10" s="4" t="n"/>
-      <c r="C10" s="5" t="n"/>
+      <c r="C10" s="2" t="n"/>
       <c r="D10" s="4" t="n"/>
       <c r="E10" s="4" t="n"/>
     </row>
@@ -2388,7 +2394,7 @@
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>				</t>
         </is>
@@ -2404,7 +2410,7 @@
         </is>
       </c>
       <c r="B2" s="4" t="n"/>
-      <c r="C2" s="5" t="n"/>
+      <c r="C2" s="2" t="n"/>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="4" t="n"/>
@@ -2558,7 +2564,7 @@
         </is>
       </c>
       <c r="B8" s="4" t="n"/>
-      <c r="C8" s="5" t="n"/>
+      <c r="C8" s="2" t="n"/>
       <c r="D8" s="4" t="n"/>
       <c r="E8" s="4" t="inlineStr">
         <is>
@@ -2724,7 +2730,7 @@
         </is>
       </c>
       <c r="B14" s="4" t="n"/>
-      <c r="C14" s="5" t="n"/>
+      <c r="C14" s="2" t="n"/>
       <c r="D14" s="4" t="n"/>
       <c r="E14" s="4" t="n"/>
       <c r="F14" s="4" t="n"/>
@@ -2792,7 +2798,7 @@
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
-      <c r="C1" s="5" t="n"/>
+      <c r="C1" s="2" t="n"/>
       <c r="D1" s="4" t="n"/>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -2803,7 +2809,7 @@
         </is>
       </c>
       <c r="B2" s="4" t="n"/>
-      <c r="C2" s="5" t="n"/>
+      <c r="C2" s="2" t="n"/>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
     </row>
@@ -2881,7 +2887,7 @@
         </is>
       </c>
       <c r="B6" s="4" t="n"/>
-      <c r="C6" s="5" t="n"/>
+      <c r="C6" s="2" t="n"/>
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="4" t="n"/>
     </row>
@@ -2984,7 +2990,7 @@
         </is>
       </c>
       <c r="B11" s="4" t="n"/>
-      <c r="C11" s="5" t="n"/>
+      <c r="C11" s="2" t="n"/>
       <c r="D11" s="4" t="n"/>
       <c r="E11" s="4" t="n"/>
     </row>
@@ -3080,7 +3086,7 @@
           <t>Classroom #</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Normal Capacity</t>
         </is>
